--- a/Test Data/Training.xlsx
+++ b/Test Data/Training.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58893A55-4936-4870-8EB0-DD84CB1AA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015B92-534C-4994-9E49-86BC3D9F7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{E4164E75-769E-44C3-82D8-CB36084CFFE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4164E75-769E-44C3-82D8-CB36084CFFE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>TRAINING</t>
   </si>
@@ -72,9 +72,21 @@
     <t>Summary Report - Date Wise (Reports Count)</t>
   </si>
   <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deactivation Account </t>
+  </si>
+  <si>
     <t xml:space="preserve">ELFY Document Upload &amp; Download </t>
   </si>
   <si>
+    <t xml:space="preserve">Elfy Site Change/ role change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchy Update per Site </t>
+  </si>
+  <si>
     <t xml:space="preserve">Staff Checking in Both Portals (per site) </t>
   </si>
   <si>
@@ -96,43 +108,46 @@
     <t>General Queries</t>
   </si>
   <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
     <t>External training research ( council training/ FGM/NHS/oral health etc)</t>
   </si>
   <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Deactivation Account</t>
-  </si>
-  <si>
-    <t>Hierarchy Update per Site</t>
-  </si>
-  <si>
-    <t>Elfy Site Change/ role change</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -156,18 +171,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,7 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,30 +518,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAA6C2-67C1-4216-B6CF-5137187E48BF}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +643,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +665,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,10 +742,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +797,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,10 +819,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,10 +830,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,10 +841,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,10 +852,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
